--- a/data/hotels_by_city/Houston/Houston_shard_586.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_586.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6467918-Reviews-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Springhill-Suites-Houston-I-45-North.h7581886.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,978 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r588560359-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6467918</t>
+  </si>
+  <si>
+    <t>588560359</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Stay for Work/Training</t>
+  </si>
+  <si>
+    <t>Very Clean hotel, rooms were well taken care of.Bed was comfortable.Breakfast was good, Hotel staff was friendly and helpful.Decent location near various places to eat and shopping.Only down fall was a slight bit of road noise from 45.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r587175410-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587175410</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good stay, great breakfast </t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of nights.  Good hotel.  Landscaping is well cared for.  Pool water appears clean.  Staff are friendly and helpful.  Rooms are typical of Springhill Suites, with good sized bathrooms, large rooms with a separated sitting area, microwave, mini safe, and mini fridge.  The closets in this facility are huge!  You can almost imagine it being another room !  
+The hotel is right on the feeder road for I-45 Highway, and directly under the approach for Bush intercontinental airport.  The roar of the traffic is awe inspiring when you’re outside, but inside, the hotel is quiet. It’s fun to watch the planes as they line up to land at the airport.  
+Gym is fully stocked and clean. Pool is simply but nicely landscaped.   Poolside furniture is in good repair.  I asked with two housekeepers and the front desk attendant for pool towels and were told they were on their way, but they never showed.  I used a towel from my room. 
+The included breakfast was a step above other hotels. They served whole nectarines and bananas. One day they had fresh strawberries and turkey sausage, the next, fresh raspberries and biscuits and sausage gravy.  Ham slices were served with optional stone ground mustard. 
+The hotel shows wear and is needing some deeper maintenance and housekeeping.   There are scuffs on the walls and stains on the furniture. The bathroom lighted mirror is becoming, I think, unglued from...I stayed here for a couple of nights.  Good hotel.  Landscaping is well cared for.  Pool water appears clean.  Staff are friendly and helpful.  Rooms are typical of Springhill Suites, with good sized bathrooms, large rooms with a separated sitting area, microwave, mini safe, and mini fridge.  The closets in this facility are huge!  You can almost imagine it being another room !  The hotel is right on the feeder road for I-45 Highway, and directly under the approach for Bush intercontinental airport.  The roar of the traffic is awe inspiring when you’re outside, but inside, the hotel is quiet. It’s fun to watch the planes as they line up to land at the airport.  Gym is fully stocked and clean. Pool is simply but nicely landscaped.   Poolside furniture is in good repair.  I asked with two housekeepers and the front desk attendant for pool towels and were told they were on their way, but they never showed.  I used a towel from my room. The included breakfast was a step above other hotels. They served whole nectarines and bananas. One day they had fresh strawberries and turkey sausage, the next, fresh raspberries and biscuits and sausage gravy.  Ham slices were served with optional stone ground mustard. The hotel shows wear and is needing some deeper maintenance and housekeeping.   There are scuffs on the walls and stains on the furniture. The bathroom lighted mirror is becoming, I think, unglued from its wall mount; an irregular brown “stain” is around the front side edge of mirror.  There are stains on the entrance patio cement, like cola was spilled or cigarette ashes were dropped and never washed up; it needs a good power washing.  It’s not a good first impression for arriving guests.  The room smells odd, musty, stale, even after my running the air conditioning fan constantly during my stay.  I posted pics on TA.  There was a previous TA comment about their car being broken in to. The hotel parking lot now has many signs to inform the grounds are under video surveillance. I parked my car under my suite window and would check on it often, day and night.  All was quiet while I was here.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed here for a couple of nights.  Good hotel.  Landscaping is well cared for.  Pool water appears clean.  Staff are friendly and helpful.  Rooms are typical of Springhill Suites, with good sized bathrooms, large rooms with a separated sitting area, microwave, mini safe, and mini fridge.  The closets in this facility are huge!  You can almost imagine it being another room !  
+The hotel is right on the feeder road for I-45 Highway, and directly under the approach for Bush intercontinental airport.  The roar of the traffic is awe inspiring when you’re outside, but inside, the hotel is quiet. It’s fun to watch the planes as they line up to land at the airport.  
+Gym is fully stocked and clean. Pool is simply but nicely landscaped.   Poolside furniture is in good repair.  I asked with two housekeepers and the front desk attendant for pool towels and were told they were on their way, but they never showed.  I used a towel from my room. 
+The included breakfast was a step above other hotels. They served whole nectarines and bananas. One day they had fresh strawberries and turkey sausage, the next, fresh raspberries and biscuits and sausage gravy.  Ham slices were served with optional stone ground mustard. 
+The hotel shows wear and is needing some deeper maintenance and housekeeping.   There are scuffs on the walls and stains on the furniture. The bathroom lighted mirror is becoming, I think, unglued from...I stayed here for a couple of nights.  Good hotel.  Landscaping is well cared for.  Pool water appears clean.  Staff are friendly and helpful.  Rooms are typical of Springhill Suites, with good sized bathrooms, large rooms with a separated sitting area, microwave, mini safe, and mini fridge.  The closets in this facility are huge!  You can almost imagine it being another room !  The hotel is right on the feeder road for I-45 Highway, and directly under the approach for Bush intercontinental airport.  The roar of the traffic is awe inspiring when you’re outside, but inside, the hotel is quiet. It’s fun to watch the planes as they line up to land at the airport.  Gym is fully stocked and clean. Pool is simply but nicely landscaped.   Poolside furniture is in good repair.  I asked with two housekeepers and the front desk attendant for pool towels and were told they were on their way, but they never showed.  I used a towel from my room. The included breakfast was a step above other hotels. They served whole nectarines and bananas. One day they had fresh strawberries and turkey sausage, the next, fresh raspberries and biscuits and sausage gravy.  Ham slices were served with optional stone ground mustard. The hotel shows wear and is needing some deeper maintenance and housekeeping.   There are scuffs on the walls and stains on the furniture. The bathroom lighted mirror is becoming, I think, unglued from its wall mount; an irregular brown “stain” is around the front side edge of mirror.  There are stains on the entrance patio cement, like cola was spilled or cigarette ashes were dropped and never washed up; it needs a good power washing.  It’s not a good first impression for arriving guests.  The room smells odd, musty, stale, even after my running the air conditioning fan constantly during my stay.  I posted pics on TA.  There was a previous TA comment about their car being broken in to. The hotel parking lot now has many signs to inform the grounds are under video surveillance. I parked my car under my suite window and would check on it often, day and night.  All was quiet while I was here.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r567784658-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567784658</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Best SpringHill Suites</t>
+  </si>
+  <si>
+    <t>This is the best SpringHill Suites that I have stayed in. The atmosphere is very comfortable and employees are very personable. Mervyn at the front desk checked me in and he was very friendly. Also this hotel has the best beds compared to other properties. Will be staying at this property now when I am in town for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>This is the best SpringHill Suites that I have stayed in. The atmosphere is very comfortable and employees are very personable. Mervyn at the front desk checked me in and he was very friendly. Also this hotel has the best beds compared to other properties. Will be staying at this property now when I am in town for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r547744283-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547744283</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Nicest Springhill Suites that I have ever visited.</t>
+  </si>
+  <si>
+    <t>I would have given it 5-stars, but there is no denying the fact that Bush Intercontinental Airliners pass directly over the building. No biggie. Not super-loud, but you can hear them. Front desk "Palma" was so perfect, it made me speculate that she is a manager, filling in for someone that called in sick. She thanked me for being "Platinum. Her delivery is slick. She anticipated my need for towels, and provided them for me immediately. Most importantly, she was so genuinely sweet, she made me feel like she was glad I showed up today.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>I would have given it 5-stars, but there is no denying the fact that Bush Intercontinental Airliners pass directly over the building. No biggie. Not super-loud, but you can hear them. Front desk "Palma" was so perfect, it made me speculate that she is a manager, filling in for someone that called in sick. She thanked me for being "Platinum. Her delivery is slick. She anticipated my need for towels, and provided them for me immediately. Most importantly, she was so genuinely sweet, she made me feel like she was glad I showed up today.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r539246218-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539246218</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent room</t>
+  </si>
+  <si>
+    <t>Staff is wonderful. Modern, clean, housekeeping goes above and beyond!  I left a note asking for ll caffinated coffee pods, and extra condiments. They realized I was only using the creamer, and left half and half.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Staff is wonderful. Modern, clean, housekeeping goes above and beyond!  I left a note asking for ll caffinated coffee pods, and extra condiments. They realized I was only using the creamer, and left half and half.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r523798483-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523798483</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>HURRICANE HARVEY DIDN'T HAVE A CHANCE HERE</t>
+  </si>
+  <si>
+    <t>We got stuck in Hurricane Harvey while traveling from Sarnia Ontario Canada. The staff were great. In particular the waitress/ cook/ bartender who was an amazing young lady, I wish I got her name.Though, the most amazing person was Terry Traylor who had a smile on his face and warmed our hearts all week long. If everyone had people skills and the love and kindness in their hearts that this man has,  the world would be a better place!! It may have been hell outside in Texas that week but, Terry keep everyone warm, safe and comfortable trough it all.Police, military staff, stranded people of from all walks of life sought refuge here and Terry greeted each and every one of us like we were his family.The hotel chain should be extremely grateful to have representation like him. A nice hotel is not hard to find but, Terry in one in a million!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We got stuck in Hurricane Harvey while traveling from Sarnia Ontario Canada. The staff were great. In particular the waitress/ cook/ bartender who was an amazing young lady, I wish I got her name.Though, the most amazing person was Terry Traylor who had a smile on his face and warmed our hearts all week long. If everyone had people skills and the love and kindness in their hearts that this man has,  the world would be a better place!! It may have been hell outside in Texas that week but, Terry keep everyone warm, safe and comfortable trough it all.Police, military staff, stranded people of from all walks of life sought refuge here and Terry greeted each and every one of us like we were his family.The hotel chain should be extremely grateful to have representation like him. A nice hotel is not hard to find but, Terry in one in a million!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r484683774-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484683774</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>Upon researching many hotels in the area. I decided to stay at Springhill. I'm so glad I did. The hotel was very nice and clean. No complaints about the room other than if you dont like the ac blowing towards you, dont sleep on the bed closest to the ac unit. It does blow directly to you and it can become very cold. Outside of that, breakfast area was amazing and so was front desk. I look forward to staying here in future visits!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Upon researching many hotels in the area. I decided to stay at Springhill. I'm so glad I did. The hotel was very nice and clean. No complaints about the room other than if you dont like the ac blowing towards you, dont sleep on the bed closest to the ac unit. It does blow directly to you and it can become very cold. Outside of that, breakfast area was amazing and so was front desk. I look forward to staying here in future visits!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r478159595-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478159595</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Rough start but John at Front Desk saved the Night !!</t>
+  </si>
+  <si>
+    <t>I stayed here a couple nights ago just a day to go away with my Family to relax, when i was trying to check in i had trouble with the front desk lady Corbin, she was extremely rude and had no Interest in trying to help me fix my reservation Nun whats so ever, that really bothered me bc she made it seem as if there was nothing else she can do. I work front desk at another Hotel and i go out of MY way to help my Guest feel their best at my location and i know there was more she could have done than to just stand there and countine to say "NO" But later i went in to just make a new reservation and there was a different guy There by the name of John a good young man who saved my night, upond arrival he greeted my family and I and made us feel very comfortable he was super friendly and Very Nice! he checked me in with not 1 problem and gave me all the info i need for breakfast and all that good stuff!! Thank you John for being such a AWSOME gentleman! I hope Springhill gives you recognization for your great work :)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here a couple nights ago just a day to go away with my Family to relax, when i was trying to check in i had trouble with the front desk lady Corbin, she was extremely rude and had no Interest in trying to help me fix my reservation Nun whats so ever, that really bothered me bc she made it seem as if there was nothing else she can do. I work front desk at another Hotel and i go out of MY way to help my Guest feel their best at my location and i know there was more she could have done than to just stand there and countine to say "NO" But later i went in to just make a new reservation and there was a different guy There by the name of John a good young man who saved my night, upond arrival he greeted my family and I and made us feel very comfortable he was super friendly and Very Nice! he checked me in with not 1 problem and gave me all the info i need for breakfast and all that good stuff!! Thank you John for being such a AWSOME gentleman! I hope Springhill gives you recognization for your great work :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r472797151-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472797151</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>COMFORTABLE STAY</t>
+  </si>
+  <si>
+    <t>We stayed here cause it was convenient to where we needed to go and i can tell you this is the best place i have ever stayed at.  Clean and very friendly staff.  Laura who was there maintaining the bfast area was amazing and we cant thank her enough for everything she has done for us to make our stay so comfortable.  we hope she is recognized at springhill suites.  only downfall was that the location didnt seem so safe.  there were a bunch of teenagers hanging out in the back parking lot almost every night and almost ran my daughter over as one of them sped off.  i found the back parking lot to be a hang out place and i hope that management can look into that further.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We stayed here cause it was convenient to where we needed to go and i can tell you this is the best place i have ever stayed at.  Clean and very friendly staff.  Laura who was there maintaining the bfast area was amazing and we cant thank her enough for everything she has done for us to make our stay so comfortable.  we hope she is recognized at springhill suites.  only downfall was that the location didnt seem so safe.  there were a bunch of teenagers hanging out in the back parking lot almost every night and almost ran my daughter over as one of them sped off.  i found the back parking lot to be a hang out place and i hope that management can look into that further.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r465442751-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465442751</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Quick road trip</t>
+  </si>
+  <si>
+    <t>This hotel was fantastic and right off of the highway! There were two people working at the check-in counter when we arrived -- they both greeted us as we walked in the door. Check-in was quick and painless and we were given all necessary information needed for our stay (WIFI password, time of breakfast for the next day, how to access the elevators). The lobby looks exactly like the pictures, and so do the rooms. Everything in the entire hotel appeared to be very clean. There is a small bar within the hotel, but was not open during our stay (Sunday to Monday) -- this may have been one of the things I would have changed. Many other reviewers commented on the level of noise coming from planes or cars on the highway. We did not hear any noises throughout our entire stay, whether we were in the room or in the lobby. The bathroom was a good size with really good water pressure in the shower. The beds were comfortable and had very fluffy pillows. Breakfast was tasty and the options of food were plentiful. For the price, cleanliness and great service, we will be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stacey S, Guest Relations Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was fantastic and right off of the highway! There were two people working at the check-in counter when we arrived -- they both greeted us as we walked in the door. Check-in was quick and painless and we were given all necessary information needed for our stay (WIFI password, time of breakfast for the next day, how to access the elevators). The lobby looks exactly like the pictures, and so do the rooms. Everything in the entire hotel appeared to be very clean. There is a small bar within the hotel, but was not open during our stay (Sunday to Monday) -- this may have been one of the things I would have changed. Many other reviewers commented on the level of noise coming from planes or cars on the highway. We did not hear any noises throughout our entire stay, whether we were in the room or in the lobby. The bathroom was a good size with really good water pressure in the shower. The beds were comfortable and had very fluffy pillows. Breakfast was tasty and the options of food were plentiful. For the price, cleanliness and great service, we will be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r452869770-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452869770</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Favorite place to stay in Houston</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times now for my daughter's roller derby bouts nearby.  We keep returning, along with many other derby families because the hotel is just lovely.  The staff is so accommodating, polite, and just overall wonderful.  The rooms are clean, modern and huge and can sleep 5 people easily.  The beds are very comfortable.  The breakfast each day is fantastic and offers a variety of options.  I just cannot say enough good things about our stays at this Springhill Suites.  We've become regulars in other cities of Springhill Suites thanks to our initial stay at this location.  The others are lovely too, but this is still my favorite location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded February 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times now for my daughter's roller derby bouts nearby.  We keep returning, along with many other derby families because the hotel is just lovely.  The staff is so accommodating, polite, and just overall wonderful.  The rooms are clean, modern and huge and can sleep 5 people easily.  The beds are very comfortable.  The breakfast each day is fantastic and offers a variety of options.  I just cannot say enough good things about our stays at this Springhill Suites.  We've become regulars in other cities of Springhill Suites thanks to our initial stay at this location.  The others are lovely too, but this is still my favorite location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r452478036-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452478036</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Convenient Location with an asterisk</t>
+  </si>
+  <si>
+    <t>And I will get to the asterisk in a moment.This is a new property in a convenient location off I45 about a 1.5 miles north of the Tollway/Hwy 8.  Very nice rooms, good fitness center, nice breakfast area with good choices, very helpful, courteous and friendly staff. About 10 minutes from IAH and not too far from The Woodlands.  Always nice to stay in a newer property.But, the asterisks.  Actually a few:Right next to I45.  Do not get a room facing the highway.  I don't know what they use to pave roads in Houston but I have never heard more road noise than what I heard from the highway - VERY loud.Next - OK so you get a room on the opposite side.  Neat-O.  Except if you have the good fortune to be in the final approach for one of the runways at IAH.  The planes are coming in low, loud and with their lights on. Often. Like every minute or so.  Keeping the windows closed does help. A lot - keep the windows closed.Finally, there are plenty of dining choices in the immediate area - the usual chains, fast food, casual dining, etc.  And even though a few are withing walking distance - DON'T.  There are no sidewalks.  Drive.All of these are not the fault of the hotel, just the luck of the location.MoreShow less</t>
+  </si>
+  <si>
+    <t>And I will get to the asterisk in a moment.This is a new property in a convenient location off I45 about a 1.5 miles north of the Tollway/Hwy 8.  Very nice rooms, good fitness center, nice breakfast area with good choices, very helpful, courteous and friendly staff. About 10 minutes from IAH and not too far from The Woodlands.  Always nice to stay in a newer property.But, the asterisks.  Actually a few:Right next to I45.  Do not get a room facing the highway.  I don't know what they use to pave roads in Houston but I have never heard more road noise than what I heard from the highway - VERY loud.Next - OK so you get a room on the opposite side.  Neat-O.  Except if you have the good fortune to be in the final approach for one of the runways at IAH.  The planes are coming in low, loud and with their lights on. Often. Like every minute or so.  Keeping the windows closed does help. A lot - keep the windows closed.Finally, there are plenty of dining choices in the immediate area - the usual chains, fast food, casual dining, etc.  And even though a few are withing walking distance - DON'T.  There are no sidewalks.  Drive.All of these are not the fault of the hotel, just the luck of the location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r443538636-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443538636</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Consistent from the Springhill brand</t>
+  </si>
+  <si>
+    <t>Great location and near IAH.  Everything you would expect from the Springhill brand.  Rooms were nice and clean, service was very good.  However, I was woke up two each night by a loud rendezvous of a couple of cars.  On our last day, a car was broken into so make sure you do not leave anything visible in your car.  Bring everything in to your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Stacey S, Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Great location and near IAH.  Everything you would expect from the Springhill brand.  Rooms were nice and clean, service was very good.  However, I was woke up two each night by a loud rendezvous of a couple of cars.  On our last day, a car was broken into so make sure you do not leave anything visible in your car.  Bring everything in to your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r442828682-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442828682</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Newer Property ~ Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>Being a Lifetime Platinum with Marriott I travel extensively. I was so happy to find this newer property near my client's office. Upon arriving at the hotel, it smelled new and its contemporary appearance appealing.The suites are large and comfortable with modern conveniences like a Keurig with several choices and a Chi Pro hairdryer.The walk-in shower and size of the bathroom are very convenient and much appreciated.I will definitely stay here in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Being a Lifetime Platinum with Marriott I travel extensively. I was so happy to find this newer property near my client's office. Upon arriving at the hotel, it smelled new and its contemporary appearance appealing.The suites are large and comfortable with modern conveniences like a Keurig with several choices and a Chi Pro hairdryer.The walk-in shower and size of the bathroom are very convenient and much appreciated.I will definitely stay here in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r442425294-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442425294</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>My car was broken into</t>
+  </si>
+  <si>
+    <t>I went out to the parking lot and my car was broken into with the driver glass window broken. Other 6 cars got the same treatment. I told to the hotel manager but he told me that the damages in the parking lot is not responsibility of the hotel. I used 4 hours to replace the glass windows and I paid more then $210. Really bad experience and never again there !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Stacey S, Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>I went out to the parking lot and my car was broken into with the driver glass window broken. Other 6 cars got the same treatment. I told to the hotel manager but he told me that the damages in the parking lot is not responsibility of the hotel. I used 4 hours to replace the glass windows and I paid more then $210. Really bad experience and never again there !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r424769035-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424769035</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>High Tech - Smells Fresh</t>
+  </si>
+  <si>
+    <t>Loved my stay here and believe me I am a critic and not a clone , from corporateWhat l like about the hotel is it was quiet , a must for me on tour and a day sleeper , the room is laid out nice with a big shower and Paul Mitchell products , bed was comfy , drapes were nice , good desk area , and the microwave even had single Serv Sani wrapped plates and silverware , a firstAnother cool thing with this hotel was the high tech lighting all led and efficient , bright tile in the lobby was also very nice , one thing I was confused about is there driveway is one way you have to exit thru a automatic gate in the back lotA special thanks to Criss for the great service and beautiful smile , always a plus to us out here on a 8 month concert tour were days are night and night is dayMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Loved my stay here and believe me I am a critic and not a clone , from corporateWhat l like about the hotel is it was quiet , a must for me on tour and a day sleeper , the room is laid out nice with a big shower and Paul Mitchell products , bed was comfy , drapes were nice , good desk area , and the microwave even had single Serv Sani wrapped plates and silverware , a firstAnother cool thing with this hotel was the high tech lighting all led and efficient , bright tile in the lobby was also very nice , one thing I was confused about is there driveway is one way you have to exit thru a automatic gate in the back lotA special thanks to Criss for the great service and beautiful smile , always a plus to us out here on a 8 month concert tour were days are night and night is dayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r415313811-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415313811</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>We stayed here simply because I found a bargain price on Expedia and because they were pet friendly and had a free breakfast. I was very pleasantly surprised!  Very, very clean and well appointed room with all the amenities you could want. The bed was so comfortable we didn't want to get out of it. The free breakfast was the best I've ever had in a hotel. It had lots of variety and the food was cooked just right. They even had awesome bacon and the coffee was great!  The only inconvenience was that our bathtub did not drain correctly but they were on top of it when I reported it. I would stay here again and again. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We stayed here simply because I found a bargain price on Expedia and because they were pet friendly and had a free breakfast. I was very pleasantly surprised!  Very, very clean and well appointed room with all the amenities you could want. The bed was so comfortable we didn't want to get out of it. The free breakfast was the best I've ever had in a hotel. It had lots of variety and the food was cooked just right. They even had awesome bacon and the coffee was great!  The only inconvenience was that our bathtub did not drain correctly but they were on top of it when I reported it. I would stay here again and again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r411905146-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>411905146</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>My Stays at this property</t>
+  </si>
+  <si>
+    <t>This property is excellent. I always stay there now because of the excellent location, great value, very clean and well maintained, excellent and friendly staff, great security both in and out as well as a fantastic guest room layout and comfort. Rooms are spacious and comfortable. Very quiet rooms with great amenities. Kurig coffee machines, Fridge and microwave in every room makes the stay very much like home. Beds are fantastic and the break between work area and rest area is very nice. Spacious barn door bathrooms are very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This property is excellent. I always stay there now because of the excellent location, great value, very clean and well maintained, excellent and friendly staff, great security both in and out as well as a fantastic guest room layout and comfort. Rooms are spacious and comfortable. Very quiet rooms with great amenities. Kurig coffee machines, Fridge and microwave in every room makes the stay very much like home. Beds are fantastic and the break between work area and rest area is very nice. Spacious barn door bathrooms are very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r385856835-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385856835</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth every single penny! </t>
+  </si>
+  <si>
+    <t>I was pleasently surprised with the modern look. The location was great.  Its centrally located amongst some good restaurants. Breakfast was ok it could of been better.  I'm a bit snobby when it comes to breakfast buffets. Everything was hot and fresh. Staff was more than helpful. Pool was to be expected for the price that we paid. I will definitely stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>I was pleasently surprised with the modern look. The location was great.  Its centrally located amongst some good restaurants. Breakfast was ok it could of been better.  I'm a bit snobby when it comes to breakfast buffets. Everything was hot and fresh. Staff was more than helpful. Pool was to be expected for the price that we paid. I will definitely stay here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r376264417-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376264417</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Great little Hotel right off I-45</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while visiting Houston. I was looking for a place north of town off I-45 and was very lucky to find this property. Let's start with the negatives. The only one i can think of is the road noise from the interstate. Otherwise the place was fantastic!Clean? YES!Friendly Staff? YES!Comfortable nights sleep? ABSOLUTELY! The bed and pillows were as comfortable as any place i have ever stayed. The design of the room was unusual but very likeable. I did not experience the free breakfast so i can't comment on that. Also the place felt as if it were in a safe location. Would i stay here again? Of course. Actually i wish i could pack this property up and take it on our next journey. *****MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while visiting Houston. I was looking for a place north of town off I-45 and was very lucky to find this property. Let's start with the negatives. The only one i can think of is the road noise from the interstate. Otherwise the place was fantastic!Clean? YES!Friendly Staff? YES!Comfortable nights sleep? ABSOLUTELY! The bed and pillows were as comfortable as any place i have ever stayed. The design of the room was unusual but very likeable. I did not experience the free breakfast so i can't comment on that. Also the place felt as if it were in a safe location. Would i stay here again? Of course. Actually i wish i could pack this property up and take it on our next journey. *****More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r374700200-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374700200</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>I have to admit that I was pleasantly surprised with this property.. They have spared no expense to give the guest a wonderful experience. Room service is awesome.. Great food from the bar. Great 48 inch tv in the room. Nice gym with "free" disposable headphones if you forget yours.. I've stayed here 6 times in the last year. Great location..MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to admit that I was pleasantly surprised with this property.. They have spared no expense to give the guest a wonderful experience. Room service is awesome.. Great food from the bar. Great 48 inch tv in the room. Nice gym with "free" disposable headphones if you forget yours.. I've stayed here 6 times in the last year. Great location..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r371088910-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371088910</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Always a restful place ... even if off of I-45</t>
+  </si>
+  <si>
+    <t>I frankly enjoy Marriott's SpringHill Suites chain. Predictable. Large rooms. Always a desk to work at. clean. Bathrooms great with showers. Free wifi. And with hot breakfast to boot. This is probably the fifh time I've stayed at this I-45 location,  There is a sister location just further north of the Woodlands, but I find this one more convenient to/from the airport. One laundry tip: Can do a large load for $5. There is a seldom used washer/dryer room on the fourth room at the end of the hallway. If you need to do a large load of laundry, this is the place to do it. $1 for the detergent (go to the lobby desk) and $2 each (in quarters) for the washer and dryer loads. And if you need to iron, there is an ironing board and iron in your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>I frankly enjoy Marriott's SpringHill Suites chain. Predictable. Large rooms. Always a desk to work at. clean. Bathrooms great with showers. Free wifi. And with hot breakfast to boot. This is probably the fifh time I've stayed at this I-45 location,  There is a sister location just further north of the Woodlands, but I find this one more convenient to/from the airport. One laundry tip: Can do a large load for $5. There is a seldom used washer/dryer room on the fourth room at the end of the hallway. If you need to do a large load of laundry, this is the place to do it. $1 for the detergent (go to the lobby desk) and $2 each (in quarters) for the washer and dryer loads. And if you need to iron, there is an ironing board and iron in your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r370274118-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370274118</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>The best hotel in the area hands down</t>
+  </si>
+  <si>
+    <t>I really enjoy staying at this hotel!The cleanliness of the rooms is top notch, the rooms have a very modern feel and the staff here is very professional and courteous! The parking lot is secure well lit and the hotel is conveniently located off ih45. Would highly recommend this hotel to anyone visiting Houston! MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>I really enjoy staying at this hotel!The cleanliness of the rooms is top notch, the rooms have a very modern feel and the staff here is very professional and courteous! The parking lot is secure well lit and the hotel is conveniently located off ih45. Would highly recommend this hotel to anyone visiting Houston! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r368170054-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368170054</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Very Clean!!</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights prior to cruising out of Pasadena. Rooms and hotel very clean. Staff very nice and professional and always willing to help. Beds are comfortable, Keurig coffee machine in the room with supplies, mini fridge and microwave. Breakfast included each morning with waffles, eggs, sausage, biscuits and gravy along with the other continental regulars. Breakfast was hot and good. Coffee was very good. We had rented a car for our visit, amenities are fairly close (driving). Restaurants, electronic stores, Target etc. Check in and check out were easy and fast. Free parking was never an issue, always close to the door. Rooms very quiet and spacious. Price was great and the whole facility was new and clean. Pool outside looked clean, we did not use it though. Wifi was good, no problems. I will definitely recommend this hotel anytime to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights prior to cruising out of Pasadena. Rooms and hotel very clean. Staff very nice and professional and always willing to help. Beds are comfortable, Keurig coffee machine in the room with supplies, mini fridge and microwave. Breakfast included each morning with waffles, eggs, sausage, biscuits and gravy along with the other continental regulars. Breakfast was hot and good. Coffee was very good. We had rented a car for our visit, amenities are fairly close (driving). Restaurants, electronic stores, Target etc. Check in and check out were easy and fast. Free parking was never an issue, always close to the door. Rooms very quiet and spacious. Price was great and the whole facility was new and clean. Pool outside looked clean, we did not use it though. Wifi was good, no problems. I will definitely recommend this hotel anytime to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r347637206-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347637206</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Great stay, nearly on the highway.</t>
+  </si>
+  <si>
+    <t>We were excited to walk up to the front desk and see that our key packs were ready, as the Marriott email had promised; however, the keys had not been coded, so it was really the usual check-in process.  The app check-in seemed like nothing more than a marketing trick.  The friendly woman, who was alone at the front desk, got us checked in as quickly as the lengthy process would allow.
+This hotel is pretty much on the highway, so if you're a light sleeper, get yourself a room on the backside of the property.  Although, on our room the highway sound was more like white noise and didn't bother our sleep.
+Our room was large, clean, and seemed new.  The bed was comfortable and we took the non-feather room option.  Kudos to Marriott for offering this.  There was an easily accessible power outlet on one side of the bed, but the other side had only a wall outlet about three feet away.
+The shower (only) had scarcely any mold.  Good job, housekeeping!  The water pressure was great, and the hot water was consistent.  This hotel cares enough about their guests to provide soft toilet paper and soft tissue.  Thank you, Marriott!  Every hotel should do this!  The towels were OK.
+The free WiFi worked well.  The room had a mini-fridge and little bar area.  The hotel has free parking in their large open-air lot.
+If I find myself...We were excited to walk up to the front desk and see that our key packs were ready, as the Marriott email had promised; however, the keys had not been coded, so it was really the usual check-in process.  The app check-in seemed like nothing more than a marketing trick.  The friendly woman, who was alone at the front desk, got us checked in as quickly as the lengthy process would allow.This hotel is pretty much on the highway, so if you're a light sleeper, get yourself a room on the backside of the property.  Although, on our room the highway sound was more like white noise and didn't bother our sleep.Our room was large, clean, and seemed new.  The bed was comfortable and we took the non-feather room option.  Kudos to Marriott for offering this.  There was an easily accessible power outlet on one side of the bed, but the other side had only a wall outlet about three feet away.The shower (only) had scarcely any mold.  Good job, housekeeping!  The water pressure was great, and the hot water was consistent.  This hotel cares enough about their guests to provide soft toilet paper and soft tissue.  Thank you, Marriott!  Every hotel should do this!  The towels were OK.The free WiFi worked well.  The room had a mini-fridge and little bar area.  The hotel has free parking in their large open-air lot.If I find myself in the area again and I need a place for a night, I just might return, as this hotel is very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>We were excited to walk up to the front desk and see that our key packs were ready, as the Marriott email had promised; however, the keys had not been coded, so it was really the usual check-in process.  The app check-in seemed like nothing more than a marketing trick.  The friendly woman, who was alone at the front desk, got us checked in as quickly as the lengthy process would allow.
+This hotel is pretty much on the highway, so if you're a light sleeper, get yourself a room on the backside of the property.  Although, on our room the highway sound was more like white noise and didn't bother our sleep.
+Our room was large, clean, and seemed new.  The bed was comfortable and we took the non-feather room option.  Kudos to Marriott for offering this.  There was an easily accessible power outlet on one side of the bed, but the other side had only a wall outlet about three feet away.
+The shower (only) had scarcely any mold.  Good job, housekeeping!  The water pressure was great, and the hot water was consistent.  This hotel cares enough about their guests to provide soft toilet paper and soft tissue.  Thank you, Marriott!  Every hotel should do this!  The towels were OK.
+The free WiFi worked well.  The room had a mini-fridge and little bar area.  The hotel has free parking in their large open-air lot.
+If I find myself...We were excited to walk up to the front desk and see that our key packs were ready, as the Marriott email had promised; however, the keys had not been coded, so it was really the usual check-in process.  The app check-in seemed like nothing more than a marketing trick.  The friendly woman, who was alone at the front desk, got us checked in as quickly as the lengthy process would allow.This hotel is pretty much on the highway, so if you're a light sleeper, get yourself a room on the backside of the property.  Although, on our room the highway sound was more like white noise and didn't bother our sleep.Our room was large, clean, and seemed new.  The bed was comfortable and we took the non-feather room option.  Kudos to Marriott for offering this.  There was an easily accessible power outlet on one side of the bed, but the other side had only a wall outlet about three feet away.The shower (only) had scarcely any mold.  Good job, housekeeping!  The water pressure was great, and the hot water was consistent.  This hotel cares enough about their guests to provide soft toilet paper and soft tissue.  Thank you, Marriott!  Every hotel should do this!  The towels were OK.The free WiFi worked well.  The room had a mini-fridge and little bar area.  The hotel has free parking in their large open-air lot.If I find myself in the area again and I need a place for a night, I just might return, as this hotel is very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r341558842-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341558842</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Beautiful hotel at a great price</t>
+  </si>
+  <si>
+    <t>We stayed at the Springhill Suites for 3 nights during my daughter's roller derby tournament.  We had rented out a block of rooms at a discounted rate for team members and their families to use.  The hotel was so nice!!!  The kids loved it and the adults were impressed with the hotel also.  The rooms were really large, with a separate seating area that had a large couch (doubled as a single sleeper sofa) and coffee table.  It almost felt like a separate room.  There was a built in desk and a microwave, refrigerator, Keurig coffee maker, large flat screen TV as well. The bathrooms were beautiful and fully updated.  The room was very modern and exceptionally clean.  The beds were soft and comfortable, as were the ample pillows they provided.  We ate the buffet-style breakfast at the hotel every morning.  It was delicious, abundant, and changed a little each day.  There were scrambled eggs, sausage, oatmeal, assorted cereal and pastries, fruit, cheese, and even do-it-yourself-waffle-makers with batter that cooked up beautifully.  The hotel has a fitness room that is well equipped and an outdoor pool.  Overall, the place was spotless and so lovely.  The staff were very accommodating and friendly.  I have stayed at other Springhill Suites in different cities, but after our wonderful experience, we will never stay anywhere else in Houston but this Springhill Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Springhill Suites for 3 nights during my daughter's roller derby tournament.  We had rented out a block of rooms at a discounted rate for team members and their families to use.  The hotel was so nice!!!  The kids loved it and the adults were impressed with the hotel also.  The rooms were really large, with a separate seating area that had a large couch (doubled as a single sleeper sofa) and coffee table.  It almost felt like a separate room.  There was a built in desk and a microwave, refrigerator, Keurig coffee maker, large flat screen TV as well. The bathrooms were beautiful and fully updated.  The room was very modern and exceptionally clean.  The beds were soft and comfortable, as were the ample pillows they provided.  We ate the buffet-style breakfast at the hotel every morning.  It was delicious, abundant, and changed a little each day.  There were scrambled eggs, sausage, oatmeal, assorted cereal and pastries, fruit, cheese, and even do-it-yourself-waffle-makers with batter that cooked up beautifully.  The hotel has a fitness room that is well equipped and an outdoor pool.  Overall, the place was spotless and so lovely.  The staff were very accommodating and friendly.  I have stayed at other Springhill Suites in different cities, but after our wonderful experience, we will never stay anywhere else in Houston but this Springhill Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r340835132-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340835132</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Shes4prayer</t>
+  </si>
+  <si>
+    <t>Great hotel! Service was great! I was able to use my AAA discount which made it a great price. The room was spacious and clean. There was no unwelcomed noise. The front desk staff was helpful and friendly. The housekeeping staff knocked and identified themselves before entering the room. Plenty of well lit parking at night. Easy to get to off I-45. Loved the shower in the bathroom!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel! Service was great! I was able to use my AAA discount which made it a great price. The room was spacious and clean. There was no unwelcomed noise. The front desk staff was helpful and friendly. The housekeeping staff knocked and identified themselves before entering the room. Plenty of well lit parking at night. Easy to get to off I-45. Loved the shower in the bathroom!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r326903122-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326903122</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely nice accommodations </t>
+  </si>
+  <si>
+    <t>The room was spotless and very spacious. A partial wall divided the bed from the sitting room, which had a large couch, tv, and full size desk. We traveled with a baby and set up the pack n play in the sitting area. It felt like we had a second bedroom for the baby. There was still so much room to walk around even with our crib set up. We checked in late and were hungry. The hotel had a place to buy frozen foods and other things and the room had a microwave and fridge. Next time we travel we will search for a Springhill Suites in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>The room was spotless and very spacious. A partial wall divided the bed from the sitting room, which had a large couch, tv, and full size desk. We traveled with a baby and set up the pack n play in the sitting area. It felt like we had a second bedroom for the baby. There was still so much room to walk around even with our crib set up. We checked in late and were hungry. The hotel had a place to buy frozen foods and other things and the room had a microwave and fridge. Next time we travel we will search for a Springhill Suites in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r320276867-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320276867</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My family and I stayed here last weekend while we were visiting family and we had an awesome time. All of the staff members were great. Housekeepers serviced the room both days we were staying there which was great because I have an active 2 year old that made a mess in the whole room. I would definitely recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed here last weekend while we were visiting family and we had an awesome time. All of the staff members were great. Housekeepers serviced the room both days we were staying there which was great because I have an active 2 year old that made a mess in the whole room. I would definitely recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r312079427-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312079427</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Trendy Hotel with lots of space</t>
+  </si>
+  <si>
+    <t>Great stay! We loved the walk-in shower and the bathroom layout. The living space was roomy and has a frosted glass separator for privacy. The breakfast in the cafe was good and fresh.  We also enjoyed a few nightcaps at the bar. We will defiantly come back next-time we are in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Great stay! We loved the walk-in shower and the bathroom layout. The living space was roomy and has a frosted glass separator for privacy. The breakfast in the cafe was good and fresh.  We also enjoyed a few nightcaps at the bar. We will defiantly come back next-time we are in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r299130320-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299130320</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Excellent and affordable business hotel in Houston</t>
+  </si>
+  <si>
+    <t>Stayed for a couple of nights while in business in the Houston area. Newer property with several dining choices close-by. Staff was very friendly and attentive,and the rooms offer all the amenities one comes to expect from a Springhill property</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r294537584-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294537584</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Disappointing for the Brand</t>
+  </si>
+  <si>
+    <t>Discarded prescription drug bottle in the trash can. Live roach crawling up wall in shower. That was immediately following check in. Day 2 I left some "tests" for housekeeping: crushed potato chips in the floor in the bathroom, crumpled tissues in the floor by the  bed. Neither was corrected and cleaned by housekeeping. Forget the design shortcuts that just barely squeaked this property by standards for the  flag; forget the paper-thin door to the next room where the occupants kept me awake until 2am. Just the failure of basic housekeeping sanitation makes this hotel a nightmare and damages the brand for me nationwide. I will be reluctant to book another Springhill anywhere  (and I travel 200+ nights a year). Tragic, because I loved the brand...until this week.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Discarded prescription drug bottle in the trash can. Live roach crawling up wall in shower. That was immediately following check in. Day 2 I left some "tests" for housekeeping: crushed potato chips in the floor in the bathroom, crumpled tissues in the floor by the  bed. Neither was corrected and cleaned by housekeeping. Forget the design shortcuts that just barely squeaked this property by standards for the  flag; forget the paper-thin door to the next room where the occupants kept me awake until 2am. Just the failure of basic housekeeping sanitation makes this hotel a nightmare and damages the brand for me nationwide. I will be reluctant to book another Springhill anywhere  (and I travel 200+ nights a year). Tragic, because I loved the brand...until this week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r292777824-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>292777824</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>After a little arrival hiccup this was a great hotel. Me, my husband, 4 year old and 2 year old arrived and were told the elevators were working slow. By the time we got to them they appeared to not be working at all. The repairman was working on them and had turned them off. They came back on quickly and there were no more elevator issues. The room was spacious, modern and clean. I like suites with kids for the extra space and separation of areas. My only complaint on the design at this Springhill is that it is impossible to separate yourself from the children at bedtime. There is a frosted partition instead of a wall. Fortunately we were as tired as the children and crashed at the same time. The bathroom was spacious and clean and there was a great shower head. The pool was very clean and towels were supplied although they ran out while we were there. The water was the perfect temperature. The breakfast was great. There were scrambled eggs, sausage and potatoes, Chobani yogurts, Nutella spread, Texas waffles and more. We didn't see any fresh fruit but we found plenty to eat. We were sad to only be here one night and hope to be able to stay at this Springhill on our future annual Houston trips. MoreShow less</t>
+  </si>
+  <si>
+    <t>After a little arrival hiccup this was a great hotel. Me, my husband, 4 year old and 2 year old arrived and were told the elevators were working slow. By the time we got to them they appeared to not be working at all. The repairman was working on them and had turned them off. They came back on quickly and there were no more elevator issues. The room was spacious, modern and clean. I like suites with kids for the extra space and separation of areas. My only complaint on the design at this Springhill is that it is impossible to separate yourself from the children at bedtime. There is a frosted partition instead of a wall. Fortunately we were as tired as the children and crashed at the same time. The bathroom was spacious and clean and there was a great shower head. The pool was very clean and towels were supplied although they ran out while we were there. The water was the perfect temperature. The breakfast was great. There were scrambled eggs, sausage and potatoes, Chobani yogurts, Nutella spread, Texas waffles and more. We didn't see any fresh fruit but we found plenty to eat. We were sad to only be here one night and hope to be able to stay at this Springhill on our future annual Houston trips. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r286693898-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286693898</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>This location was a bit far from my desired activities however I was very pleased with these accommodations and would stay there again regardless of the distance. The room was very swanky as was the entire building.The staff was very helpful and knowledgable of the area. The breakfast was top notch too!! Great stay overall!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>This location was a bit far from my desired activities however I was very pleased with these accommodations and would stay there again regardless of the distance. The room was very swanky as was the entire building.The staff was very helpful and knowledgable of the area. The breakfast was top notch too!! Great stay overall!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r279608043-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279608043</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>New and Extremely Clean</t>
+  </si>
+  <si>
+    <t>Rooms are in excellent condition with modern decor.  Staff is friendly and quick.  There is a bar downstairs that is open until 10 pm on weekdays. Lobby is comfortable for hanging out or having an impromptu meeting.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r275119252-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275119252</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Brand new and friendly</t>
+  </si>
+  <si>
+    <t>This appears to be a very new hotel right off the highway. Staff was super friendly and rooms were very clean and modern. Lots of restaurants around too. I would stay here again! Parking filled up fast.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r266587095-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266587095</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To the reviewer who said it smelled odd, it's brand new carpet smell.  This hotel is spotless and new.   Easy access to the highway and airport.  Bar in lobby.  Room wonderful and set up great.    Huge flat screen in room to either swivel to watch in living room or from bed.  I am a hotel bed snob and this was terrific.  This is definitely a great extended stay room, or just for the night. Keurig coffee machine in room a plus.   For the price it's a deal.  Will stay here again if the need arises.      </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r265872333-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265872333</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Nice, new property with easy access to I-45 freeway.  Giant TV in rooms with great channel selection.</t>
+  </si>
+  <si>
+    <t>Staff was very nice and welcoming.  15-20 minutes to IAH.  TV channel selections are great.  More channels than I get at home!!  The equipment in the fitness center was nice and new.  I will stay here next time in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r259292938-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259292938</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Odd smelling hotel</t>
+  </si>
+  <si>
+    <t>Checked in for a two day stay.  It is very difficult to find a decent NON smoking hotel in this area but we are Marriott members so we took the newest to their family.  Perhaps this was not the best choice.  The room plus the hallways and the elevator have a spicy/smoky sort of smell.  Not sure if it is because of the newness or something else.  We asked for a new room and moved to the ground floor which seemed better but the longer we are in the room the stronger the odor.  The window opens so we are hopeful. The hotel itself is beautiful and very clean.  The food served at the lobby bar was good and the staff is pleasant even if they are all very new and lack knowledge about their Hotel ie where is the ice machine and how much is a local call.  Breakfast buffet was also nice.  The normal sort for a free breakfast and refilled quickly.  The bed is very comfy so on a whole a nice place to sleep.  The smell is my biggest issue and it is NOT a $99.00 room so that is disconcerting.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Michelle D, Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Checked in for a two day stay.  It is very difficult to find a decent NON smoking hotel in this area but we are Marriott members so we took the newest to their family.  Perhaps this was not the best choice.  The room plus the hallways and the elevator have a spicy/smoky sort of smell.  Not sure if it is because of the newness or something else.  We asked for a new room and moved to the ground floor which seemed better but the longer we are in the room the stronger the odor.  The window opens so we are hopeful. The hotel itself is beautiful and very clean.  The food served at the lobby bar was good and the staff is pleasant even if they are all very new and lack knowledge about their Hotel ie where is the ice machine and how much is a local call.  Breakfast buffet was also nice.  The normal sort for a free breakfast and refilled quickly.  The bed is very comfy so on a whole a nice place to sleep.  The smell is my biggest issue and it is NOT a $99.00 room so that is disconcerting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r254283808-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254283808</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and the staff is friendly. Our handicap room was missing the handheld shower head. It was Saturday afternoon, so the person who could fix that was out. They nicely offered to move us to another room, but we had already settled in. The hotel is very; very nice.  The room is great. We have a king suite. The couch area has two small tables that can be moved. We shifted the tv and enjoyed our package's champagne and strawberries from the couch. The room has a small fridge, microwave and keurig coffee maker. The bathroom is huge and gorgeous. I especially like the rolling door that provides privacy but doesn't make either room feel too closed off. The bed was very comfortable. The only major problem we had was at breakfast. It seems like they never had enough "hot" food. I wish there was a little more seating, too. The lobby is beautiful. We didn't try a drink in the bar but it looked nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Michelle D, Operations Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and the staff is friendly. Our handicap room was missing the handheld shower head. It was Saturday afternoon, so the person who could fix that was out. They nicely offered to move us to another room, but we had already settled in. The hotel is very; very nice.  The room is great. We have a king suite. The couch area has two small tables that can be moved. We shifted the tv and enjoyed our package's champagne and strawberries from the couch. The room has a small fridge, microwave and keurig coffee maker. The bathroom is huge and gorgeous. I especially like the rolling door that provides privacy but doesn't make either room feel too closed off. The bed was very comfortable. The only major problem we had was at breakfast. It seems like they never had enough "hot" food. I wish there was a little more seating, too. The lobby is beautiful. We didn't try a drink in the bar but it looked nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r253114556-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253114556</t>
+  </si>
+  <si>
+    <t>02/07/2015</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Place is just near I-45.A little bit complecated to enter by car.Workers are very kind.Room is quite big and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Michelle D, Operations Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Place is just near I-45.A little bit complecated to enter by car.Workers are very kind.Room is quite big and comfortable.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1513,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1545,2662 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>135</v>
+      </c>
+      <c r="X15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>135</v>
+      </c>
+      <c r="X17" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>135</v>
+      </c>
+      <c r="X18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>135</v>
+      </c>
+      <c r="X19" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>235</v>
+      </c>
+      <c r="X25" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>244</v>
+      </c>
+      <c r="X27" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>259</v>
+      </c>
+      <c r="X28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>244</v>
+      </c>
+      <c r="X30" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>244</v>
+      </c>
+      <c r="X31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>296</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>297</v>
+      </c>
+      <c r="X33" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>296</v>
+      </c>
+      <c r="O34" t="s">
+        <v>101</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>209</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>101</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>310</v>
+      </c>
+      <c r="X35" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>101</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>319</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" t="s">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s">
+        <v>323</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>324</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>330</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>331</v>
+      </c>
+      <c r="J39" t="s">
+        <v>332</v>
+      </c>
+      <c r="K39" t="s">
+        <v>333</v>
+      </c>
+      <c r="L39" t="s">
+        <v>334</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J40" t="s">
+        <v>337</v>
+      </c>
+      <c r="K40" t="s">
+        <v>338</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>340</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>341</v>
+      </c>
+      <c r="X40" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>345</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s">
+        <v>347</v>
+      </c>
+      <c r="L41" t="s">
+        <v>348</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>349</v>
+      </c>
+      <c r="O41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>350</v>
+      </c>
+      <c r="X41" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>353</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>354</v>
+      </c>
+      <c r="J42" t="s">
+        <v>355</v>
+      </c>
+      <c r="K42" t="s">
+        <v>356</v>
+      </c>
+      <c r="L42" t="s">
+        <v>357</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>358</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>359</v>
+      </c>
+      <c r="X42" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_586.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_586.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="552">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,55 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r599313793-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6467918</t>
+  </si>
+  <si>
+    <t>599313793</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel near airport</t>
+  </si>
+  <si>
+    <t>We came into Houston on a late flight and had a free night at a Marriott and stayed at this SpringHill.  Close to airport.  Welcoming was good.  All staff and service were good and we had no issues.  Good breakfast and it was well stocked with choices (although typical) were good and fresh.  Didn't use the pool, so can't comment on that.  Room was 2 Queen beds, although they didn't seem like it, but still very comfy.  Room was clean and bathroom was also clean.Did not have any issue with airplane noise.  Would stay here again and would recommend it to others as an option too.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r596544250-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596544250</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was still recovering from Hurricane Harvey so I knew what to expect when staying there. That said, the hotel did a good job with making the necessary accommodations. Instead of a buffet breakfast it was in a converted hotel room with an attendant ensuring the food was filled. The size of the rooms were ample and spacious. I would definitely stay again! </t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r588560359-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>6467918</t>
   </si>
   <si>
     <t>588560359</t>
@@ -236,6 +275,54 @@
     <t>This is the best SpringHill Suites that I have stayed in. The atmosphere is very comfortable and employees are very personable. Mervyn at the front desk checked me in and he was very friendly. Also this hotel has the best beds compared to other properties. Will be staying at this property now when I am in town for business.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r564266146-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564266146</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Super convenient and affordable stay in Houston</t>
+  </si>
+  <si>
+    <t>Room and entire hotel was clean.  Breakfast Bar was well stocked and kept fresh.  Hotel Staff was pleasant and efficient.  Location is was half way between the City of Houston and The Woodlands.  Conveniently located on I 45, but we experienced no road noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Room and entire hotel was clean.  Breakfast Bar was well stocked and kept fresh.  Hotel Staff was pleasant and efficient.  Location is was half way between the City of Houston and The Woodlands.  Conveniently located on I 45, but we experienced no road noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r558133469-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558133469</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Poorest Stay at a Marriott Property</t>
+  </si>
+  <si>
+    <t>Stood at property just after Hurricane Harvey for a couple of days to restore business operations! Therefore I had to change my travel plans for several times due to uncertain agenda. The overall hotel stay was okay given the circumstances. However the billing was processed incorrectly and additional nights were charged. Upon checkout the issue has been discussed in detail with Receptionist (incl. evidence for cancellation). I got assured that the issues were settled, but noticed additional charges on credit card statement back home. Subsequent calls were handled unprofessionally and various emails to property management simply not responded! It is difficult for me to deal with this matter as I am based out of Germany and takes a lot of time and effort! I never experienced such poor customer service at any hotel! Would not recommend this hotel at all due to reasons above!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Stood at property just after Hurricane Harvey for a couple of days to restore business operations! Therefore I had to change my travel plans for several times due to uncertain agenda. The overall hotel stay was okay given the circumstances. However the billing was processed incorrectly and additional nights were charged. Upon checkout the issue has been discussed in detail with Receptionist (incl. evidence for cancellation). I got assured that the issues were settled, but noticed additional charges on credit card statement back home. Subsequent calls were handled unprofessionally and various emails to property management simply not responded! It is difficult for me to deal with this matter as I am based out of Germany and takes a lot of time and effort! I never experienced such poor customer service at any hotel! Would not recommend this hotel at all due to reasons above!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r547744283-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -251,9 +338,6 @@
     <t>I would have given it 5-stars, but there is no denying the fact that Bush Intercontinental Airliners pass directly over the building. No biggie. Not super-loud, but you can hear them. Front desk "Palma" was so perfect, it made me speculate that she is a manager, filling in for someone that called in sick. She thanked me for being "Platinum. Her delivery is slick. She anticipated my need for towels, and provided them for me immediately. Most importantly, she was so genuinely sweet, she made me feel like she was glad I showed up today.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -302,15 +386,60 @@
     <t>We got stuck in Hurricane Harvey while traveling from Sarnia Ontario Canada. The staff were great. In particular the waitress/ cook/ bartender who was an amazing young lady, I wish I got her name.Though, the most amazing person was Terry Traylor who had a smile on his face and warmed our hearts all week long. If everyone had people skills and the love and kindness in their hearts that this man has,  the world would be a better place!! It may have been hell outside in Texas that week but, Terry keep everyone warm, safe and comfortable trough it all.Police, military staff, stranded people of from all walks of life sought refuge here and Terry greeted each and every one of us like we were his family.The hotel chain should be extremely grateful to have representation like him. A nice hotel is not hard to find but, Terry in one in a million!MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>We got stuck in Hurricane Harvey while traveling from Sarnia Ontario Canada. The staff were great. In particular the waitress/ cook/ bartender who was an amazing young lady, I wish I got her name.Though, the most amazing person was Terry Traylor who had a smile on his face and warmed our hearts all week long. If everyone had people skills and the love and kindness in their hearts that this man has,  the world would be a better place!! It may have been hell outside in Texas that week but, Terry keep everyone warm, safe and comfortable trough it all.Police, military staff, stranded people of from all walks of life sought refuge here and Terry greeted each and every one of us like we were his family.The hotel chain should be extremely grateful to have representation like him. A nice hotel is not hard to find but, Terry in one in a million!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r513708838-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513708838</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>No worries here</t>
+  </si>
+  <si>
+    <t>Nothing to complain about with our stay here several weeks ago. Staff was attentive and friendly, the room was clean. The location is convenient to north Houston. It's also close enough to IAH to be convenient without the typical airport hotel noise. I'd definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Nothing to complain about with our stay here several weeks ago. Staff was attentive and friendly, the room was clean. The location is convenient to north Houston. It's also close enough to IAH to be convenient without the typical airport hotel noise. I'd definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r492885960-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492885960</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>One of the best Springhill Suites</t>
+  </si>
+  <si>
+    <t>Springhill suites is one of my go to hotels when I'm traveling for business. This one stands out from the rest. Super clean, super new, super friendly and helpful staff. Try to pick a room on the west side of the hotel. You will be rewarded with a view of aircraft on final approach into George Bush.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Springhill suites is one of my go to hotels when I'm traveling for business. This one stands out from the rest. Super clean, super new, super friendly and helpful staff. Try to pick a room on the west side of the hotel. You will be rewarded with a view of aircraft on final approach into George Bush.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r484683774-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -329,9 +458,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded May 18, 2017</t>
   </si>
   <si>
@@ -389,6 +515,45 @@
     <t>We stayed here cause it was convenient to where we needed to go and i can tell you this is the best place i have ever stayed at.  Clean and very friendly staff.  Laura who was there maintaining the bfast area was amazing and we cant thank her enough for everything she has done for us to make our stay so comfortable.  we hope she is recognized at springhill suites.  only downfall was that the location didnt seem so safe.  there were a bunch of teenagers hanging out in the back parking lot almost every night and almost ran my daughter over as one of them sped off.  i found the back parking lot to be a hang out place and i hope that management can look into that further.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r467404413-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467404413</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, quiet hotel near the airport</t>
+  </si>
+  <si>
+    <t>We arrived at IAH late enough to need a hotel before continuing our trip.  This hotel was convenient and had good reviews.  It is a newer hotel and has great finish in the rooms.  The sound insulation is fantastic.  We happened to be there at the same time as one or more school groups, so the hallways were somewhat noisy.  However, once in the room the noise was barely detectable, nor was freeway noise.  Staff were wonderful - friendly and helpful.  I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stacey S, Guest Relations Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>We arrived at IAH late enough to need a hotel before continuing our trip.  This hotel was convenient and had good reviews.  It is a newer hotel and has great finish in the rooms.  The sound insulation is fantastic.  We happened to be there at the same time as one or more school groups, so the hallways were somewhat noisy.  However, once in the room the noise was barely detectable, nor was freeway noise.  Staff were wonderful - friendly and helpful.  I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r467376699-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467376699</t>
+  </si>
+  <si>
+    <t>Awesome place and staff.</t>
+  </si>
+  <si>
+    <t>This Springhill is clean, well kept and absolutely to recommend if You have business in the area, or just want a good place to stay for a good price..Price is amazing compared to the high standard it offers and the staff is awesome and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Springhill is clean, well kept and absolutely to recommend if You have business in the area, or just want a good place to stay for a good price..Price is amazing compared to the high standard it offers and the staff is awesome and helpful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r465442751-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -404,12 +569,6 @@
     <t>This hotel was fantastic and right off of the highway! There were two people working at the check-in counter when we arrived -- they both greeted us as we walked in the door. Check-in was quick and painless and we were given all necessary information needed for our stay (WIFI password, time of breakfast for the next day, how to access the elevators). The lobby looks exactly like the pictures, and so do the rooms. Everything in the entire hotel appeared to be very clean. There is a small bar within the hotel, but was not open during our stay (Sunday to Monday) -- this may have been one of the things I would have changed. Many other reviewers commented on the level of noise coming from planes or cars on the highway. We did not hear any noises throughout our entire stay, whether we were in the room or in the lobby. The bathroom was a good size with really good water pressure in the shower. The beds were comfortable and had very fluffy pillows. Breakfast was tasty and the options of food were plentiful. For the price, cleanliness and great service, we will be staying here again!MoreShow less</t>
   </si>
   <si>
-    <t>Stacey S, Guest Relations Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 30, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 30, 2017</t>
-  </si>
-  <si>
     <t>This hotel was fantastic and right off of the highway! There were two people working at the check-in counter when we arrived -- they both greeted us as we walked in the door. Check-in was quick and painless and we were given all necessary information needed for our stay (WIFI password, time of breakfast for the next day, how to access the elevators). The lobby looks exactly like the pictures, and so do the rooms. Everything in the entire hotel appeared to be very clean. There is a small bar within the hotel, but was not open during our stay (Sunday to Monday) -- this may have been one of the things I would have changed. Many other reviewers commented on the level of noise coming from planes or cars on the highway. We did not hear any noises throughout our entire stay, whether we were in the room or in the lobby. The bathroom was a good size with really good water pressure in the shower. The beds were comfortable and had very fluffy pillows. Breakfast was tasty and the options of food were plentiful. For the price, cleanliness and great service, we will be staying here again!More</t>
   </si>
   <si>
@@ -458,6 +617,51 @@
     <t>And I will get to the asterisk in a moment.This is a new property in a convenient location off I45 about a 1.5 miles north of the Tollway/Hwy 8.  Very nice rooms, good fitness center, nice breakfast area with good choices, very helpful, courteous and friendly staff. About 10 minutes from IAH and not too far from The Woodlands.  Always nice to stay in a newer property.But, the asterisks.  Actually a few:Right next to I45.  Do not get a room facing the highway.  I don't know what they use to pave roads in Houston but I have never heard more road noise than what I heard from the highway - VERY loud.Next - OK so you get a room on the opposite side.  Neat-O.  Except if you have the good fortune to be in the final approach for one of the runways at IAH.  The planes are coming in low, loud and with their lights on. Often. Like every minute or so.  Keeping the windows closed does help. A lot - keep the windows closed.Finally, there are plenty of dining choices in the immediate area - the usual chains, fast food, casual dining, etc.  And even though a few are withing walking distance - DON'T.  There are no sidewalks.  Drive.All of these are not the fault of the hotel, just the luck of the location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r450344494-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450344494</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and spacious </t>
+  </si>
+  <si>
+    <t>We needed a hotel to base ourselves with close proximity to the airport and we're very happy with this hotel. It appears to be quite new with huge rooms that also include a little sitting area. Walking through the corridors the carpets are thick and sumptuous and still smell new. The beds are super comfortable. Friendly staff, free breakfast, free wifi, free parking. Oh, and there is a wonderful Tex Mex restaurant right next door. Couldn't ask for better!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>We needed a hotel to base ourselves with close proximity to the airport and we're very happy with this hotel. It appears to be quite new with huge rooms that also include a little sitting area. Walking through the corridors the carpets are thick and sumptuous and still smell new. The beds are super comfortable. Friendly staff, free breakfast, free wifi, free parking. Oh, and there is a wonderful Tex Mex restaurant right next door. Couldn't ask for better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r449059336-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449059336</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>If you're black they are nice to you. Whites they are rude</t>
+  </si>
+  <si>
+    <t>I found the black women who work at the front desk really don't like white people with their condescending attitude and poor eye contact.  They are rude and non caring.  They are sure nice to people of their own color though.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stacey S, Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>I found the black women who work at the front desk really don't like white people with their condescending attitude and poor eye contact.  They are rude and non caring.  They are sure nice to people of their own color though.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r443538636-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -473,9 +677,6 @@
     <t>Great location and near IAH.  Everything you would expect from the Springhill brand.  Rooms were nice and clean, service was very good.  However, I was woke up two each night by a loud rendezvous of a couple of cars.  On our last day, a car was broken into so make sure you do not leave anything visible in your car.  Bring everything in to your room.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Stacey S, Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded December 12, 2016</t>
   </si>
   <si>
@@ -530,6 +731,48 @@
     <t>I went out to the parking lot and my car was broken into with the driver glass window broken. Other 6 cars got the same treatment. I told to the hotel manager but he told me that the damages in the parking lot is not responsibility of the hotel. I used 4 hours to replace the glass windows and I paid more then $210. Really bad experience and never again there !!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r440742316-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440742316</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>I went out to the parking lot and my car was broken into, so I told the girl in the front desk but she did not care much, so I called the police, and the cop told me that this was not the first time that a car was broken into in this hotel, and that he asked the management of the hotel to move one camera towards the parking lot for safety but they have not done it, so the cop came to the conclusion that it may be an inside job. Beware of the hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>I went out to the parking lot and my car was broken into, so I told the girl in the front desk but she did not care much, so I called the police, and the cop told me that this was not the first time that a car was broken into in this hotel, and that he asked the management of the hotel to move one camera towards the parking lot for safety but they have not done it, so the cop came to the conclusion that it may be an inside job. Beware of the hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r429166890-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429166890</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>New property, solid rate</t>
+  </si>
+  <si>
+    <t>This hotel is about 18 months old and still looks brand new.  Very nicely appointed with modern yet comfortable rooms.  Very well designed for the business traveler.  Great work space and "living area" and super comfortable bed.  Even the breakfast was quite a bit better than average.  Highly recommend this property if you're travelling to North Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>This hotel is about 18 months old and still looks brand new.  Very nicely appointed with modern yet comfortable rooms.  Very well designed for the business traveler.  Great work space and "living area" and super comfortable bed.  Even the breakfast was quite a bit better than average.  Highly recommend this property if you're travelling to North Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r424769035-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -545,9 +788,6 @@
     <t>Loved my stay here and believe me I am a critic and not a clone , from corporateWhat l like about the hotel is it was quiet , a must for me on tour and a day sleeper , the room is laid out nice with a big shower and Paul Mitchell products , bed was comfy , drapes were nice , good desk area , and the microwave even had single Serv Sani wrapped plates and silverware , a firstAnother cool thing with this hotel was the high tech lighting all led and efficient , bright tile in the lobby was also very nice , one thing I was confused about is there driveway is one way you have to exit thru a automatic gate in the back lotA special thanks to Criss for the great service and beautiful smile , always a plus to us out here on a 8 month concert tour were days are night and night is dayMoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Loved my stay here and believe me I am a critic and not a clone , from corporateWhat l like about the hotel is it was quiet , a must for me on tour and a day sleeper , the room is laid out nice with a big shower and Paul Mitchell products , bed was comfy , drapes were nice , good desk area , and the microwave even had single Serv Sani wrapped plates and silverware , a firstAnother cool thing with this hotel was the high tech lighting all led and efficient , bright tile in the lobby was also very nice , one thing I was confused about is there driveway is one way you have to exit thru a automatic gate in the back lotA special thanks to Criss for the great service and beautiful smile , always a plus to us out here on a 8 month concert tour were days are night and night is dayMore</t>
   </si>
   <si>
@@ -593,6 +833,57 @@
     <t>This property is excellent. I always stay there now because of the excellent location, great value, very clean and well maintained, excellent and friendly staff, great security both in and out as well as a fantastic guest room layout and comfort. Rooms are spacious and comfortable. Very quiet rooms with great amenities. Kurig coffee machines, Fridge and microwave in every room makes the stay very much like home. Beds are fantastic and the break between work area and rest area is very nice. Spacious barn door bathrooms are very nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r408473037-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408473037</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>You know what you are getting with Marriott</t>
+  </si>
+  <si>
+    <t>Stayed here while traveling for business. Easy access to meetings and the airport. No frills hotel, but there was a bar and lounge area for relaxing. Room was clean and in good shape. Nothing fancy, but that's okay. Sometimes you just need a place in the right location that isn't going to disappoint and this SpringHill Suite fit the bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here while traveling for business. Easy access to meetings and the airport. No frills hotel, but there was a bar and lounge area for relaxing. Room was clean and in good shape. Nothing fancy, but that's okay. Sometimes you just need a place in the right location that isn't going to disappoint and this SpringHill Suite fit the bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r400278467-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400278467</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Top Notch Experience!</t>
+  </si>
+  <si>
+    <t>This hotel is by far one of the best I've stayed at in a while.  Pristine rooms with a beautiful Asian influence.  Up to date look and feel.  The bathroom mirrors are so innovative, that the center mirror doesn't fog after shower!  Super comfortable beds.  Great pool and workout facility.  Love this place! MoreShow less</t>
+  </si>
+  <si>
+    <t>Alan S, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is by far one of the best I've stayed at in a while.  Pristine rooms with a beautiful Asian influence.  Up to date look and feel.  The bathroom mirrors are so innovative, that the center mirror doesn't fog after shower!  Super comfortable beds.  Great pool and workout facility.  Love this place! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r385856835-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -662,15 +953,54 @@
     <t>I have to admit that I was pleasantly surprised with this property.. They have spared no expense to give the guest a wonderful experience. Room service is awesome.. Great food from the bar. Great 48 inch tv in the room. Nice gym with "free" disposable headphones if you forget yours.. I've stayed here 6 times in the last year. Great location..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r373918017-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373918017</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Very clean hotel, spacious rooms with an innovative design and a reasonable price</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel from May 6 to May 8, 2016 with my wife and kids. Everybody loved the room. Two double beds in a relatively spacious room, with microwave, fridge, iron, flat screen tv, sofa bed, large closet and a wonderful bathroom. The design of that room is really attractive and denotes of such a comfort. "Chapeau" to the Housekeeping staff, the room was very clean. The beds were comfortable and the bathroom was adequatly equipped. Free breakfast until 10 am (extended to 10.30 each day we stayed there). Convivial ambiance at the breakfast room between guests and with staff. Check in was Ok, the front desk Associate was helpful and professional. Check out was very quick (we reserved and paid through orbitz). Ample parking space. The hotel is near the highway but the room was soundproof. Our window was opposite to the highway side though, so I would not speak for the guests on the other side. The hotel is 30 to 45 minutes from the center of Houston. Overall, I would recommend this hotel and will definitely go backMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel from May 6 to May 8, 2016 with my wife and kids. Everybody loved the room. Two double beds in a relatively spacious room, with microwave, fridge, iron, flat screen tv, sofa bed, large closet and a wonderful bathroom. The design of that room is really attractive and denotes of such a comfort. "Chapeau" to the Housekeeping staff, the room was very clean. The beds were comfortable and the bathroom was adequatly equipped. Free breakfast until 10 am (extended to 10.30 each day we stayed there). Convivial ambiance at the breakfast room between guests and with staff. Check in was Ok, the front desk Associate was helpful and professional. Check out was very quick (we reserved and paid through orbitz). Ample parking space. The hotel is near the highway but the room was soundproof. Our window was opposite to the highway side though, so I would not speak for the guests on the other side. The hotel is 30 to 45 minutes from the center of Houston. Overall, I would recommend this hotel and will definitely go backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r371288467-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371288467</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>I stayed here during OTC 2016. The hotel was nice and clean an the staf where profetional.Big rooms with GREAT BEDS!The only thing that i think could be improved a great deal is the breakfast. The was nothing wrong with it, i just did not like that they had plastisk cutlery and paperplates...The selection of food could also be a lot better. A lot of us foreigners expeted to get pancaces and maple syrup, we where lett down. We only had bacon two days, i expext that every morning with my eggs.I will stay here again in about a month, mabe the breakfast has improved by then?MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here during OTC 2016. The hotel was nice and clean an the staf where profetional.Big rooms with GREAT BEDS!The only thing that i think could be improved a great deal is the breakfast. The was nothing wrong with it, i just did not like that they had plastisk cutlery and paperplates...The selection of food could also be a lot better. A lot of us foreigners expeted to get pancaces and maple syrup, we where lett down. We only had bacon two days, i expext that every morning with my eggs.I will stay here again in about a month, mabe the breakfast has improved by then?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r371088910-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
     <t>371088910</t>
   </si>
   <si>
-    <t>05/08/2016</t>
-  </si>
-  <si>
     <t>Always a restful place ... even if off of I-45</t>
   </si>
   <si>
@@ -738,6 +1068,57 @@
   </si>
   <si>
     <t>Stayed here for two nights prior to cruising out of Pasadena. Rooms and hotel very clean. Staff very nice and professional and always willing to help. Beds are comfortable, Keurig coffee machine in the room with supplies, mini fridge and microwave. Breakfast included each morning with waffles, eggs, sausage, biscuits and gravy along with the other continental regulars. Breakfast was hot and good. Coffee was very good. We had rented a car for our visit, amenities are fairly close (driving). Restaurants, electronic stores, Target etc. Check in and check out were easy and fast. Free parking was never an issue, always close to the door. Rooms very quiet and spacious. Price was great and the whole facility was new and clean. Pool outside looked clean, we did not use it though. Wifi was good, no problems. I will definitely recommend this hotel anytime to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r357965845-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357965845</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>B&amp;G</t>
+  </si>
+  <si>
+    <t>The service was good from day one. The staff is friendly and made you feel welcomed. House keeping was maintained daily and they made me feel at home.  I will definitely recommend this trip to my family and friends. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>The service was good from day one. The staff is friendly and made you feel welcomed. House keeping was maintained daily and they made me feel at home.  I will definitely recommend this trip to my family and friends. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r350907733-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350907733</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Amazing new property.</t>
+  </si>
+  <si>
+    <t>Of this is what all new Springhill Suites will be like, I will never stay anywhere else. Cool architecture inside and out. Staff is amazing. They gave us our free Platinum Elite upgrade without us having to ask. Free Platinum gits was a cool 2 in 1 wine glass/martini glass. The room was spacious and beautiful. Giant Samsung flat screen TV with easy to navigate Direct TV. Nice work station and giant L shaped couch. Decent sized fridge. Good sized bathroom. Comfy bed. Everything was clean and the property was quiet. Convenient location right near the highway. Affordable price.  Recycle bin in the lobby and a recycle bin IN the room. Every hotel should do this, but so many don't. This property also has a small bar in the lobby. Nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Of this is what all new Springhill Suites will be like, I will never stay anywhere else. Cool architecture inside and out. Staff is amazing. They gave us our free Platinum Elite upgrade without us having to ask. Free Platinum gits was a cool 2 in 1 wine glass/martini glass. The room was spacious and beautiful. Giant Samsung flat screen TV with easy to navigate Direct TV. Nice work station and giant L shaped couch. Decent sized fridge. Good sized bathroom. Comfy bed. Everything was clean and the property was quiet. Convenient location right near the highway. Affordable price.  Recycle bin in the lobby and a recycle bin IN the room. Every hotel should do this, but so many don't. This property also has a small bar in the lobby. Nice touch.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r347637206-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
@@ -760,9 +1141,6 @@
 If I find myself...We were excited to walk up to the front desk and see that our key packs were ready, as the Marriott email had promised; however, the keys had not been coded, so it was really the usual check-in process.  The app check-in seemed like nothing more than a marketing trick.  The friendly woman, who was alone at the front desk, got us checked in as quickly as the lengthy process would allow.This hotel is pretty much on the highway, so if you're a light sleeper, get yourself a room on the backside of the property.  Although, on our room the highway sound was more like white noise and didn't bother our sleep.Our room was large, clean, and seemed new.  The bed was comfortable and we took the non-feather room option.  Kudos to Marriott for offering this.  There was an easily accessible power outlet on one side of the bed, but the other side had only a wall outlet about three feet away.The shower (only) had scarcely any mold.  Good job, housekeeping!  The water pressure was great, and the hot water was consistent.  This hotel cares enough about their guests to provide soft toilet paper and soft tissue.  Thank you, Marriott!  Every hotel should do this!  The towels were OK.The free WiFi worked well.  The room had a mini-fridge and little bar area.  The hotel has free parking in their large open-air lot.If I find myself in the area again and I need a place for a night, I just might return, as this hotel is very comfortable.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded March 9, 2016</t>
   </si>
   <si>
@@ -822,6 +1200,51 @@
     <t>Great hotel! Service was great! I was able to use my AAA discount which made it a great price. The room was spacious and clean. There was no unwelcomed noise. The front desk staff was helpful and friendly. The housekeeping staff knocked and identified themselves before entering the room. Plenty of well lit parking at night. Easy to get to off I-45. Loved the shower in the bathroom!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r335077981-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335077981</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Amazing environment</t>
+  </si>
+  <si>
+    <t>Upon entrance greeted by two beautiful smiles belonging Staff Katherine and CorbineWho proved to be very knowledgeable helpful and friendly along with Lucaya and Jonathan later  but Katherine and Corbine knew the layout. The room took my breath away   What a pleasant surprise,! I ordered the the studio queen double more than I bargained for the architect was on point the fused glass for privacy separating work area from bed and bath , smelled nice and new, complimentary and take out breakfast but area was great enough to avoid take out and enjoy everything and I lived in the fitness gym so well maintained and peaceful. Definitely returning, I stayed 3 nightsMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Upon entrance greeted by two beautiful smiles belonging Staff Katherine and CorbineWho proved to be very knowledgeable helpful and friendly along with Lucaya and Jonathan later  but Katherine and Corbine knew the layout. The room took my breath away   What a pleasant surprise,! I ordered the the studio queen double more than I bargained for the architect was on point the fused glass for privacy separating work area from bed and bath , smelled nice and new, complimentary and take out breakfast but area was great enough to avoid take out and enjoy everything and I lived in the fitness gym so well maintained and peaceful. Definitely returning, I stayed 3 nightsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r333610942-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333610942</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New and clean-my two favorite things!! </t>
+  </si>
+  <si>
+    <t>Just checked into this shiny new Springhill suites and am quite impressed. As a platinum member who's stayed in over 50 different hotels in 36 cities THIS YEAR, getting to stay in a brand new and clean place every now and then makes being away from home a little easier. Lobby was clean and elegant, Check-in was quick and friendly and the bar was buzzing with other guests. The room is really spacious, bed is comfy and there are nice touches such as a keurig coffee maker, iHome clock with usb charger, and a dark chocolate on the pillow. Watch out! Springhill's gettin fancy! Definitely got a good first impression and will be back during my future trips to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded December 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2015</t>
+  </si>
+  <si>
+    <t>Just checked into this shiny new Springhill suites and am quite impressed. As a platinum member who's stayed in over 50 different hotels in 36 cities THIS YEAR, getting to stay in a brand new and clean place every now and then makes being away from home a little easier. Lobby was clean and elegant, Check-in was quick and friendly and the bar was buzzing with other guests. The room is really spacious, bed is comfy and there are nice touches such as a keurig coffee maker, iHome clock with usb charger, and a dark chocolate on the pillow. Watch out! Springhill's gettin fancy! Definitely got a good first impression and will be back during my future trips to Houston. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r326903122-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1314,66 @@
     <t>Great stay! We loved the walk-in shower and the bathroom layout. The living space was roomy and has a frosted glass separator for privacy. The breakfast in the cafe was good and fresh.  We also enjoyed a few nightcaps at the bar. We will defiantly come back next-time we are in Houston.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r310613228-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310613228</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Labor Day Weekend</t>
+  </si>
+  <si>
+    <t>This property more than exceeds the beautiful pictures posted on the website! Absolutely breathtaking and is sure to please just about every traveler's needs!
+I spent Labor Day weekend in Houston with family and our 2 bed suite was more than accommodating. Very spacious and seemed to be fairly new! The bathroom was to absolutely die for! We could not get over the stand up shower display, the beautiful sliding doors for the bathroom and how large the entire thing was! Truly a luxurious addition to an already perfect room!
+The beds were super comfy with plenty of space, blankets and lots of pillows. The pull out sofa was even comfortable and usually those things are terrible to sleep on. Plenty of adequate lighting and lots of power outlets for our many electronics we had with us.
+The fridge and microwave were nice touches as well! We had a very minor issue with our fridge upon check-in but the team immediately sent up a new one to resolve the issue. Very fantastic!
+The key and door bolt were different, where you have to basically wave your room key on the pad to unlock the door. Although different and unusual, I did enjoy almost feeling like a magician with that creativeness! 
+The free WiFi was also very durable and strong. It never gave us any problems when using it for FaceTime, Periscope, and other video streaming apps.
+Breakfast each morning was...This property more than exceeds the beautiful pictures posted on the website! Absolutely breathtaking and is sure to please just about every traveler's needs!I spent Labor Day weekend in Houston with family and our 2 bed suite was more than accommodating. Very spacious and seemed to be fairly new! The bathroom was to absolutely die for! We could not get over the stand up shower display, the beautiful sliding doors for the bathroom and how large the entire thing was! Truly a luxurious addition to an already perfect room!The beds were super comfy with plenty of space, blankets and lots of pillows. The pull out sofa was even comfortable and usually those things are terrible to sleep on. Plenty of adequate lighting and lots of power outlets for our many electronics we had with us.The fridge and microwave were nice touches as well! We had a very minor issue with our fridge upon check-in but the team immediately sent up a new one to resolve the issue. Very fantastic!The key and door bolt were different, where you have to basically wave your room key on the pad to unlock the door. Although different and unusual, I did enjoy almost feeling like a magician with that creativeness! The free WiFi was also very durable and strong. It never gave us any problems when using it for FaceTime, Periscope, and other video streaming apps.Breakfast each morning was excellent as well! Lots of great and fresh choices for people of any and basically every dietary need. The breakfast staff were always there checking to see if anything needed to be refilled and immediately did so when needed!The front desk staff were always very professional appearing and acting, which is always nice. Every time we walked out or into the building we were always greeted with a warm smile :)The pool was also very nice and clean with lots of clean towels provided. My only (personal) issue with the pool is that it is a little on the tiny side for such a grand property and there is unfortunately no hot tub, but other than that it was great!I would definitely recommend this property and returning whenever I come back to Houston! The location is also ideal, I don't think you could ask for a more perfect location with easy access to anything and everything. Thank you Springhill Suites for being top notch! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>This property more than exceeds the beautiful pictures posted on the website! Absolutely breathtaking and is sure to please just about every traveler's needs!
+I spent Labor Day weekend in Houston with family and our 2 bed suite was more than accommodating. Very spacious and seemed to be fairly new! The bathroom was to absolutely die for! We could not get over the stand up shower display, the beautiful sliding doors for the bathroom and how large the entire thing was! Truly a luxurious addition to an already perfect room!
+The beds were super comfy with plenty of space, blankets and lots of pillows. The pull out sofa was even comfortable and usually those things are terrible to sleep on. Plenty of adequate lighting and lots of power outlets for our many electronics we had with us.
+The fridge and microwave were nice touches as well! We had a very minor issue with our fridge upon check-in but the team immediately sent up a new one to resolve the issue. Very fantastic!
+The key and door bolt were different, where you have to basically wave your room key on the pad to unlock the door. Although different and unusual, I did enjoy almost feeling like a magician with that creativeness! 
+The free WiFi was also very durable and strong. It never gave us any problems when using it for FaceTime, Periscope, and other video streaming apps.
+Breakfast each morning was...This property more than exceeds the beautiful pictures posted on the website! Absolutely breathtaking and is sure to please just about every traveler's needs!I spent Labor Day weekend in Houston with family and our 2 bed suite was more than accommodating. Very spacious and seemed to be fairly new! The bathroom was to absolutely die for! We could not get over the stand up shower display, the beautiful sliding doors for the bathroom and how large the entire thing was! Truly a luxurious addition to an already perfect room!The beds were super comfy with plenty of space, blankets and lots of pillows. The pull out sofa was even comfortable and usually those things are terrible to sleep on. Plenty of adequate lighting and lots of power outlets for our many electronics we had with us.The fridge and microwave were nice touches as well! We had a very minor issue with our fridge upon check-in but the team immediately sent up a new one to resolve the issue. Very fantastic!The key and door bolt were different, where you have to basically wave your room key on the pad to unlock the door. Although different and unusual, I did enjoy almost feeling like a magician with that creativeness! The free WiFi was also very durable and strong. It never gave us any problems when using it for FaceTime, Periscope, and other video streaming apps.Breakfast each morning was excellent as well! Lots of great and fresh choices for people of any and basically every dietary need. The breakfast staff were always there checking to see if anything needed to be refilled and immediately did so when needed!The front desk staff were always very professional appearing and acting, which is always nice. Every time we walked out or into the building we were always greeted with a warm smile :)The pool was also very nice and clean with lots of clean towels provided. My only (personal) issue with the pool is that it is a little on the tiny side for such a grand property and there is unfortunately no hot tub, but other than that it was great!I would definitely recommend this property and returning whenever I come back to Houston! The location is also ideal, I don't think you could ask for a more perfect location with easy access to anything and everything. Thank you Springhill Suites for being top notch! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r304775958-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304775958</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>A wonderful place to stay.</t>
+  </si>
+  <si>
+    <t>My fiance and myself really did enjoy this hotel when we were in town for business.  We will definitely be staying here again.  The room was very nice and modern.  The hotel was very clean with a great breakfast being served in the morning.  I would recommend this hotel to others.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>My fiance and myself really did enjoy this hotel when we were in town for business.  We will definitely be staying here again.  The room was very nice and modern.  The hotel was very clean with a great breakfast being served in the morning.  I would recommend this hotel to others.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r299130320-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -945,15 +1428,51 @@
     <t>07/26/2015</t>
   </si>
   <si>
-    <t>Great hotel</t>
-  </si>
-  <si>
     <t>After a little arrival hiccup this was a great hotel. Me, my husband, 4 year old and 2 year old arrived and were told the elevators were working slow. By the time we got to them they appeared to not be working at all. The repairman was working on them and had turned them off. They came back on quickly and there were no more elevator issues. The room was spacious, modern and clean. I like suites with kids for the extra space and separation of areas. My only complaint on the design at this Springhill is that it is impossible to separate yourself from the children at bedtime. There is a frosted partition instead of a wall. Fortunately we were as tired as the children and crashed at the same time. The bathroom was spacious and clean and there was a great shower head. The pool was very clean and towels were supplied although they ran out while we were there. The water was the perfect temperature. The breakfast was great. There were scrambled eggs, sausage and potatoes, Chobani yogurts, Nutella spread, Texas waffles and more. We didn't see any fresh fruit but we found plenty to eat. We were sad to only be here one night and hope to be able to stay at this Springhill on our future annual Houston trips. MoreShow less</t>
   </si>
   <si>
     <t>After a little arrival hiccup this was a great hotel. Me, my husband, 4 year old and 2 year old arrived and were told the elevators were working slow. By the time we got to them they appeared to not be working at all. The repairman was working on them and had turned them off. They came back on quickly and there were no more elevator issues. The room was spacious, modern and clean. I like suites with kids for the extra space and separation of areas. My only complaint on the design at this Springhill is that it is impossible to separate yourself from the children at bedtime. There is a frosted partition instead of a wall. Fortunately we were as tired as the children and crashed at the same time. The bathroom was spacious and clean and there was a great shower head. The pool was very clean and towels were supplied although they ran out while we were there. The water was the perfect temperature. The breakfast was great. There were scrambled eggs, sausage and potatoes, Chobani yogurts, Nutella spread, Texas waffles and more. We didn't see any fresh fruit but we found plenty to eat. We were sad to only be here one night and hope to be able to stay at this Springhill on our future annual Houston trips. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r290193429-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290193429</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Very close to airport and Army reserve center.</t>
+  </si>
+  <si>
+    <t>I was in Houston for military training and the staff was very flexible on setting up on my army budget.  The location is very clean, their breakfast was very good and the room super confortable.  I will definitely come back to this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r288884623-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288884623</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel</t>
+  </si>
+  <si>
+    <t>I booked this room at the last minute with my wife and seven month old. The room was immaculate. Clean, comfortable, and eye-pleasing. Staff was well mannered and trained and every experience with them left a smile on my face. The complimentary breakfast was delicious and well balanced. I would defiantly recommend this hotel to anyone. Cost was reasonable as well. Just over $100 for the night. It was like a $300 a night stay. Very satisfied with Springhill Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris E, General Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>I booked this room at the last minute with my wife and seven month old. The room was immaculate. Clean, comfortable, and eye-pleasing. Staff was well mannered and trained and every experience with them left a smile on my face. The complimentary breakfast was delicious and well balanced. I would defiantly recommend this hotel to anyone. Cost was reasonable as well. Just over $100 for the night. It was like a $300 a night stay. Very satisfied with Springhill Suites.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r286693898-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1530,39 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r274988492-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274988492</t>
+  </si>
+  <si>
+    <t>Good hotel for business travel in the Houston north/IAH area</t>
+  </si>
+  <si>
+    <t>Located right off of I-45 North, convenient to area businesses and restaurants. Surprisingly quiet, considering location next to freeway and not far from airport. Nice room layout with separate work area. Well-equipped fitness center for a smaller hotel. Good buffet breakfast offering. Free WiFi was adequate although seemed a bit slow.  Staff was very friendly and helpful.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r273114680-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273114680</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>one of the best experiences</t>
+  </si>
+  <si>
+    <t>We had the most wonderful experience. We were in town for the Ironman triathlon and stayed for three nights. This is a brand new hotel – as in less than six months old. Everything is still so clean, still in great working condition, the staff is incredibly friendly and helpful. Heck, there is still a slight new carpet smell!The wheelchair accessible room was on the best we’ve ever been in – the closet had two levels of hanging rods; the room was very open with furniture that did not take up a lot of space; the bathroom was very spacious; the tub had a shower stool that I wouldn’t mind using – very sturdy and very clean; the shower had a lot of water pressure and also had a hand-held shower head.In addition, there was a pull-out couch, large screen tv; Chi hair dryer; Paul Mitchell toiletries; mini-fridge; Keurig coffee pot, etc. All the linens smelled clean/sanitized. There was a pool with a wheelchair lift. The workout equipment was new and all in working order.The breakfast was continually refreshed.Be warned though, Google maps will take you directly across I-45 from where you should be. Very easy fix and the hotel is easily seen from across the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had the most wonderful experience. We were in town for the Ironman triathlon and stayed for three nights. This is a brand new hotel – as in less than six months old. Everything is still so clean, still in great working condition, the staff is incredibly friendly and helpful. Heck, there is still a slight new carpet smell!The wheelchair accessible room was on the best we’ve ever been in – the closet had two levels of hanging rods; the room was very open with furniture that did not take up a lot of space; the bathroom was very spacious; the tub had a shower stool that I wouldn’t mind using – very sturdy and very clean; the shower had a lot of water pressure and also had a hand-held shower head.In addition, there was a pull-out couch, large screen tv; Chi hair dryer; Paul Mitchell toiletries; mini-fridge; Keurig coffee pot, etc. All the linens smelled clean/sanitized. There was a pool with a wheelchair lift. The workout equipment was new and all in working order.The breakfast was continually refreshed.Be warned though, Google maps will take you directly across I-45 from where you should be. Very easy fix and the hotel is easily seen from across the freeway.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r266587095-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1068,6 +1620,39 @@
     <t>Checked in for a two day stay.  It is very difficult to find a decent NON smoking hotel in this area but we are Marriott members so we took the newest to their family.  Perhaps this was not the best choice.  The room plus the hallways and the elevator have a spicy/smoky sort of smell.  Not sure if it is because of the newness or something else.  We asked for a new room and moved to the ground floor which seemed better but the longer we are in the room the stronger the odor.  The window opens so we are hopeful. The hotel itself is beautiful and very clean.  The food served at the lobby bar was good and the staff is pleasant even if they are all very new and lack knowledge about their Hotel ie where is the ice machine and how much is a local call.  Breakfast buffet was also nice.  The normal sort for a free breakfast and refilled quickly.  The bed is very comfy so on a whole a nice place to sleep.  The smell is my biggest issue and it is NOT a $99.00 room so that is disconcerting.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r256733091-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256733091</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Lovely property, it is new and trendy!</t>
+  </si>
+  <si>
+    <t>Very new property.  Very modern, clean, fresh,warm and inviting. The rooms are spacious and very well laidout.  The colors and decor are very cool and breezy and help you relax and unwind after a busy hectic day. Michelle D and Sarah O are stars!  Very fine leadership at the helm.Way to go............... You'll are going to blow your competition away!!  Congratulations.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r256408656-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256408656</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand new hotel. Staff was friendly. Great hotel for what you pay. Beds were comfortable and bathroom is really spacious. The only two negative things I have would be that when you book the 2 Queen beds, the TV is not centered to where both beds can comfortably see it. The other is breakfast. No bacon! And not a lot of variety. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6467918-r254283808-SpringHill_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1081,9 +1666,6 @@
   </si>
   <si>
     <t>The hotel is brand new and the staff is friendly. Our handicap room was missing the handheld shower head. It was Saturday afternoon, so the person who could fix that was out. They nicely offered to move us to another room, but we had already settled in. The hotel is very; very nice.  The room is great. We have a king suite. The couch area has two small tables that can be moved. We shifted the tv and enjoyed our package's champagne and strawberries from the couch. The room has a small fridge, microwave and keurig coffee maker. The bathroom is huge and gorgeous. I especially like the rolling door that provides privacy but doesn't make either room feel too closed off. The bed was very comfortable. The only major problem we had was at breakfast. It seems like they never had enough "hot" food. I wish there was a little more seating, too. The lobby is beautiful. We didn't try a drink in the bar but it looked nice.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2015</t>
   </si>
   <si>
     <t>Michelle D, Operations Manager at SpringHill Suites Houston I-45 North, responded to this reviewResponded February 16, 2015</t>
@@ -1654,7 +2236,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1662,15 +2244,17 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1718,10 +2302,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1735,7 +2319,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1751,52 +2335,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1812,58 +2396,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1879,7 +2453,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1888,25 +2462,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1918,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1940,43 +2514,43 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
       <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" t="n">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -1985,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -2007,56 +2581,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -2072,7 +2642,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2081,30 +2651,32 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
@@ -2115,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -2137,7 +2709,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2146,47 +2718,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2202,7 +2770,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2211,39 +2779,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
+      <c r="N11" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -2259,7 +2837,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2268,49 +2846,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="Y12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -2326,7 +2898,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2335,37 +2907,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
         <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2377,7 +2949,7 @@
         <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
@@ -2393,7 +2965,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2402,22 +2974,22 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
@@ -2425,26 +2997,24 @@
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2460,7 +3030,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2469,47 +3039,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2525,58 +3095,56 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
         <v>159</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>160</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
         <v>161</v>
-      </c>
-      <c r="K16" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>164</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2592,7 +3160,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2601,43 +3169,47 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="X17" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2653,7 +3225,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2662,25 +3234,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2692,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="X18" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
@@ -2714,7 +3286,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2723,49 +3295,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s">
-        <v>187</v>
-      </c>
-      <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="X19" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -2781,7 +3343,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2790,43 +3352,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="X20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Y20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
@@ -2842,7 +3410,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2851,47 +3419,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
         <v>196</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="22">
@@ -2907,7 +3477,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2916,49 +3486,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="X22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -2974,7 +3538,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2983,49 +3547,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
@@ -3041,7 +3605,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3050,43 +3614,49 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
@@ -3102,7 +3672,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3111,47 +3681,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
         <v>4</v>
       </c>
-      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="X25" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
@@ -3167,7 +3737,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3176,43 +3746,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="X26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
@@ -3228,7 +3804,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3237,49 +3813,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="X27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Y27" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3295,7 +3871,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3304,43 +3880,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O28" t="s">
-        <v>101</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="X28" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -3356,7 +3938,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3365,25 +3947,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="O29" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3395,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
@@ -3417,7 +3999,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3426,47 +4008,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="X30" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
@@ -3482,7 +4060,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3491,25 +4069,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3527,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="X31" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
@@ -3549,7 +4127,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3558,39 +4136,47 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>275</v>
+      </c>
+      <c r="X32" t="s">
+        <v>276</v>
+      </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
@@ -3606,7 +4192,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3615,26 +4201,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>296</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3645,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
@@ -3667,7 +4249,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3676,25 +4258,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3705,10 +4287,14 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>292</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
@@ -3724,7 +4310,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3733,43 +4319,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s">
-        <v>209</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="X35" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
@@ -3785,7 +4375,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3794,34 +4384,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
         <v>5</v>
       </c>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -3829,10 +4419,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>301</v>
+      </c>
+      <c r="X36" t="s">
+        <v>293</v>
+      </c>
       <c r="Y36" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
@@ -3848,7 +4442,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3857,43 +4451,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J37" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K37" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
-      <c r="P37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" t="s">
+        <v>293</v>
+      </c>
       <c r="Y37" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
@@ -3909,7 +4509,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3918,39 +4518,47 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="O38" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>320</v>
+      </c>
+      <c r="X38" t="s">
+        <v>321</v>
+      </c>
       <c r="Y38" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
@@ -3966,7 +4574,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3975,43 +4583,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J39" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>328</v>
+      </c>
+      <c r="X39" t="s">
+        <v>329</v>
+      </c>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40">
@@ -4027,58 +4641,52 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
         <v>335</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
-        <v>336</v>
-      </c>
-      <c r="J40" t="s">
-        <v>337</v>
-      </c>
-      <c r="K40" t="s">
-        <v>338</v>
-      </c>
-      <c r="L40" t="s">
-        <v>339</v>
-      </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="O40" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="X40" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41">
@@ -4094,52 +4702,56 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
         <v>344</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>345</v>
-      </c>
-      <c r="J41" t="s">
-        <v>346</v>
-      </c>
-      <c r="K41" t="s">
-        <v>347</v>
-      </c>
-      <c r="L41" t="s">
-        <v>348</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>349</v>
-      </c>
       <c r="O41" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="X41" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Y41" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42">
@@ -4155,7 +4767,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4164,25 +4776,25 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="J42" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K42" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4194,13 +4806,1753 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
+        <v>353</v>
+      </c>
+      <c r="X42" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
         <v>359</v>
       </c>
-      <c r="X42" t="s">
+      <c r="L43" t="s">
         <v>360</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>361</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>362</v>
+      </c>
+      <c r="X43" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>365</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>366</v>
+      </c>
+      <c r="J44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K44" t="s">
+        <v>368</v>
+      </c>
+      <c r="L44" t="s">
+        <v>369</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>378</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>378</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>385</v>
+      </c>
+      <c r="X46" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>389</v>
+      </c>
+      <c r="J47" t="s">
+        <v>390</v>
+      </c>
+      <c r="K47" t="s">
+        <v>391</v>
+      </c>
+      <c r="L47" t="s">
+        <v>392</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>393</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>370</v>
+      </c>
+      <c r="X47" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>393</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>400</v>
+      </c>
+      <c r="X48" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>403</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>404</v>
+      </c>
+      <c r="J49" t="s">
+        <v>405</v>
+      </c>
+      <c r="K49" t="s">
+        <v>406</v>
+      </c>
+      <c r="L49" t="s">
+        <v>407</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>408</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>409</v>
+      </c>
+      <c r="X49" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K50" t="s">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s">
+        <v>416</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>370</v>
+      </c>
+      <c r="X50" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>419</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>420</v>
+      </c>
+      <c r="J51" t="s">
+        <v>421</v>
+      </c>
+      <c r="K51" t="s">
+        <v>422</v>
+      </c>
+      <c r="L51" t="s">
+        <v>423</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>424</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>370</v>
+      </c>
+      <c r="X51" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" t="s">
+        <v>428</v>
+      </c>
+      <c r="K52" t="s">
+        <v>429</v>
+      </c>
+      <c r="L52" t="s">
+        <v>430</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>424</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>431</v>
+      </c>
+      <c r="X52" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>439</v>
+      </c>
+      <c r="X53" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>442</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>443</v>
+      </c>
+      <c r="J54" t="s">
+        <v>444</v>
+      </c>
+      <c r="K54" t="s">
+        <v>445</v>
+      </c>
+      <c r="L54" t="s">
+        <v>446</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>447</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>454</v>
+      </c>
+      <c r="X55" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>457</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>458</v>
+      </c>
+      <c r="J56" t="s">
+        <v>459</v>
+      </c>
+      <c r="K56" t="s">
+        <v>318</v>
+      </c>
+      <c r="L56" t="s">
+        <v>460</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>453</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>463</v>
+      </c>
+      <c r="J57" t="s">
+        <v>464</v>
+      </c>
+      <c r="K57" t="s">
+        <v>465</v>
+      </c>
+      <c r="L57" t="s">
+        <v>466</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L58" t="s">
+        <v>471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>472</v>
+      </c>
+      <c r="X58" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>475</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>476</v>
+      </c>
+      <c r="J59" t="s">
+        <v>477</v>
+      </c>
+      <c r="K59" t="s">
+        <v>306</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>479</v>
+      </c>
+      <c r="X59" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>483</v>
+      </c>
+      <c r="J60" t="s">
+        <v>484</v>
+      </c>
+      <c r="K60" t="s">
+        <v>485</v>
+      </c>
+      <c r="L60" t="s">
+        <v>486</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>487</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>488</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>489</v>
+      </c>
+      <c r="J61" t="s">
+        <v>490</v>
+      </c>
+      <c r="K61" t="s">
+        <v>491</v>
+      </c>
+      <c r="L61" t="s">
+        <v>492</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>493</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
+      </c>
+      <c r="K62" t="s">
+        <v>496</v>
+      </c>
+      <c r="L62" t="s">
+        <v>497</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>498</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>500</v>
+      </c>
+      <c r="J63" t="s">
+        <v>501</v>
+      </c>
+      <c r="K63" t="s">
+        <v>502</v>
+      </c>
+      <c r="L63" t="s">
+        <v>503</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>506</v>
+      </c>
+      <c r="J64" t="s">
+        <v>507</v>
+      </c>
+      <c r="K64" t="s">
+        <v>508</v>
+      </c>
+      <c r="L64" t="s">
+        <v>509</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>493</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>510</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>511</v>
+      </c>
+      <c r="J65" t="s">
+        <v>512</v>
+      </c>
+      <c r="K65" t="s">
+        <v>513</v>
+      </c>
+      <c r="L65" t="s">
+        <v>514</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>493</v>
+      </c>
+      <c r="O65" t="s">
+        <v>66</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>516</v>
+      </c>
+      <c r="J66" t="s">
+        <v>517</v>
+      </c>
+      <c r="K66" t="s">
+        <v>518</v>
+      </c>
+      <c r="L66" t="s">
+        <v>519</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>520</v>
+      </c>
+      <c r="O66" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>521</v>
+      </c>
+      <c r="X66" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>525</v>
+      </c>
+      <c r="J67" t="s">
+        <v>526</v>
+      </c>
+      <c r="K67" t="s">
+        <v>527</v>
+      </c>
+      <c r="L67" t="s">
+        <v>528</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>529</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>531</v>
+      </c>
+      <c r="J68" t="s">
+        <v>532</v>
+      </c>
+      <c r="K68" t="s">
+        <v>533</v>
+      </c>
+      <c r="L68" t="s">
+        <v>534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>536</v>
+      </c>
+      <c r="J69" t="s">
+        <v>537</v>
+      </c>
+      <c r="K69" t="s">
+        <v>538</v>
+      </c>
+      <c r="L69" t="s">
+        <v>539</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>529</v>
+      </c>
+      <c r="O69" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>540</v>
+      </c>
+      <c r="X69" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63377</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>543</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>544</v>
+      </c>
+      <c r="J70" t="s">
+        <v>545</v>
+      </c>
+      <c r="K70" t="s">
+        <v>546</v>
+      </c>
+      <c r="L70" t="s">
+        <v>547</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>548</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>549</v>
+      </c>
+      <c r="X70" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
